--- a/Versión 3/Documentación/Documentos Producto Final/2.7 Encuesta SUS y MINIMENTAL.xlsx
+++ b/Versión 3/Documentación/Documentos Producto Final/2.7 Encuesta SUS y MINIMENTAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/carlos_bayas_epn_edu_ec/Documents/APUNTES CJ7/7 mo Semestre/Calidad de Software/Documentos Producto Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="772" documentId="8_{092897C0-FEB7-47D5-A575-DC986FA8F512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9EAF530-3FB2-4428-8DC9-41ABBCC301F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAA57EB7-3E4F-435E-926A-640AC8861683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{FFF20640-8FC0-46B5-B7F5-458939DE011F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFF20640-8FC0-46B5-B7F5-458939DE011F}"/>
   </bookViews>
   <sheets>
     <sheet name="SUS Paciente" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>Encuesta SUS  Pacientes</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Puntuación, se suman los 2 resultados, y multiplicarlos por 2,5.</t>
   </si>
   <si>
-    <t xml:space="preserve">Conlusión: </t>
-  </si>
-  <si>
     <t>Preguntas para Metricas CSAT y NPS</t>
   </si>
   <si>
@@ -151,6 +148,12 @@
     <t>NPS: Del 1 al 10 ¿están dispuestos a recomendar al equipo de desarrollo de software?</t>
   </si>
   <si>
+    <t xml:space="preserve">CSAT= </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPS= </t>
+  </si>
+  <si>
     <t>Encuesta SUS  Terapeutas</t>
   </si>
   <si>
@@ -236,13 +239,19 @@
   </si>
   <si>
     <t>Demencia</t>
+  </si>
+  <si>
+    <t>Metricas CSAT y NPS Terapeuta</t>
+  </si>
+  <si>
+    <t>Metricas CSAT y NPS Paciente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -618,19 +627,6 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thick">
         <color indexed="64"/>
       </top>
@@ -1157,6 +1153,34 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1170,7 +1194,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1194,36 +1218,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1242,36 +1263,36 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1287,22 +1308,22 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
@@ -1312,22 +1333,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1336,171 +1357,184 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1508,18 +1542,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,22 +1560,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,22 +1584,22 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1586,80 +1611,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1696,7 +1733,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>260212</xdr:colOff>
+      <xdr:colOff>96926</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>169923</xdr:rowOff>
     </xdr:to>
@@ -1784,9 +1821,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1824,7 +1861,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1930,7 +1967,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2072,7 +2109,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2080,131 +2117,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F4665C-A91C-4973-A55A-59289007B9D6}">
-  <dimension ref="B2:M30"/>
+  <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16.5" customHeight="1"/>
-    <row r="6" spans="2:13" ht="15" customHeight="1"/>
-    <row r="7" spans="2:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B7" s="106" t="s">
+    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-    </row>
-    <row r="8" spans="2:13" ht="51" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="113" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+    </row>
+    <row r="8" spans="2:13" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="26" t="s">
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="114" t="s">
+      <c r="M8" s="115" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="51" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="111" t="s">
+    <row r="9" spans="2:13" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="26">
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="23">
         <v>67</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="24">
         <v>76</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="25">
         <v>81</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="26">
         <v>84</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="27">
         <v>76</v>
       </c>
-      <c r="M9" s="115"/>
-    </row>
-    <row r="10" spans="2:13" ht="51" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="113" t="s">
+      <c r="M9" s="116"/>
+    </row>
+    <row r="10" spans="2:13" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="116"/>
-    </row>
-    <row r="11" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="108" t="s">
+      <c r="M10" s="117"/>
+    </row>
+    <row r="11" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="1">
         <v>3</v>
       </c>
@@ -2225,15 +2263,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B12" s="108" t="s">
+    <row r="12" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="1">
         <v>1</v>
       </c>
@@ -2254,15 +2292,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="108" t="s">
+    <row r="13" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
       <c r="H13" s="1">
         <v>3</v>
       </c>
@@ -2283,15 +2321,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="108" t="s">
+    <row r="14" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="111"/>
       <c r="H14" s="1">
         <v>1</v>
       </c>
@@ -2312,15 +2350,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="108" t="s">
+    <row r="15" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
       <c r="H15" s="1">
         <v>4</v>
       </c>
@@ -2341,15 +2379,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="108" t="s">
+    <row r="16" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="1">
         <v>1</v>
       </c>
@@ -2370,15 +2408,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="108" t="s">
+    <row r="17" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="1">
         <v>4</v>
       </c>
@@ -2399,15 +2437,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="108" t="s">
+    <row r="18" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
       <c r="H18" s="1">
         <v>1</v>
       </c>
@@ -2428,15 +2466,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B19" s="108" t="s">
+    <row r="19" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="111"/>
       <c r="H19" s="1">
         <v>5</v>
       </c>
@@ -2457,15 +2495,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="108" t="s">
+    <row r="20" spans="2:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="111"/>
       <c r="H20" s="1">
         <v>1</v>
       </c>
@@ -2486,155 +2524,228 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B22" s="125" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="128"/>
       <c r="H22" s="11">
-        <f>SUM(M11,M13,M15,M17,M19)-5</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B23" s="119" t="s">
+        <f>SUM(H11,H13,H15,H17,H19)-5</f>
+        <v>14</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" ref="I22:L22" si="1">SUM(I11,I13,I15,I17,I19)-5</f>
+        <v>19</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="128">
-        <f>25 - SUM(M12,M14,M16,M18,M20)</f>
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="129"/>
-    </row>
-    <row r="25" spans="2:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B25" s="16" t="s">
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="105">
+        <f>25 - SUM(H12,H14,H16,H18,H20)</f>
+        <v>20</v>
+      </c>
+      <c r="I23" s="105">
+        <f t="shared" ref="I23:L23" si="2">25 - SUM(I12,I14,I16,I18,I20)</f>
+        <v>15</v>
+      </c>
+      <c r="J23" s="105">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K23" s="105">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L23" s="105">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="123"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="12">
         <f>SUM(H22:H24) * 2.5</f>
-        <v>170</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
-    </row>
-    <row r="26" spans="2:13">
+        <v>85</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" ref="I25:L25" si="3">SUM(I22:I24) * 2.5</f>
+        <v>85</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="3"/>
+        <v>57.5</v>
+      </c>
+      <c r="M25" s="103">
+        <f xml:space="preserve"> SUM(H25:L25)/5</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="28" spans="2:13" ht="30.75" thickTop="1">
-      <c r="B28" s="24" t="s">
-        <v>29</v>
+    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="J28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="K28" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="L28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="23" t="s">
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="118" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="117" t="s">
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="48">
+        <v>4</v>
+      </c>
+      <c r="I29" s="48">
+        <v>3</v>
+      </c>
+      <c r="J29" s="48">
+        <v>4</v>
+      </c>
+      <c r="K29" s="48">
+        <v>4</v>
+      </c>
+      <c r="L29" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="51">
-        <v>4</v>
-      </c>
-      <c r="I29" s="51">
-        <v>3</v>
-      </c>
-      <c r="J29" s="51">
-        <v>4</v>
-      </c>
-      <c r="K29" s="51">
-        <v>4</v>
-      </c>
-      <c r="L29" s="51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="117" t="s">
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="48">
+        <v>10</v>
+      </c>
+      <c r="I30" s="48">
+        <v>10</v>
+      </c>
+      <c r="J30" s="48">
+        <v>8</v>
+      </c>
+      <c r="K30" s="48">
+        <v>9</v>
+      </c>
+      <c r="L30" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="175" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="176"/>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="51">
-        <v>10</v>
-      </c>
-      <c r="I30" s="51">
-        <v>10</v>
-      </c>
-      <c r="J30" s="51">
-        <v>8</v>
-      </c>
-      <c r="K30" s="51">
-        <v>9</v>
-      </c>
-      <c r="L30" s="51">
-        <v>10</v>
+      <c r="G33" s="173">
+        <f>SUM(H29:L29)/5</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="174" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="174">
+        <f>(3/5) * 100</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="25">
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B23:G24"/>
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H23:H24"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
@@ -2648,6 +2759,11 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="M8:M10"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="H23:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2657,13 +2773,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820E7012-4C45-48D2-8034-2922CE39B094}">
-  <dimension ref="A2:L30"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
@@ -2675,87 +2791,87 @@
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1"/>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-    </row>
-    <row r="8" spans="1:12" ht="35.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="130" t="s">
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+    </row>
+    <row r="8" spans="1:12" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="42" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="H8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="I8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="J8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="147" t="s">
+      <c r="L8" s="146" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="130" t="s">
+    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="46" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="148"/>
-    </row>
-    <row r="10" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="108" t="s">
+      <c r="L9" s="147"/>
+    </row>
+    <row r="10" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="1">
         <v>5</v>
       </c>
@@ -2776,15 +2892,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="108" t="s">
+    <row r="11" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -2805,15 +2921,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="108" t="s">
+    <row r="12" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="1">
         <v>2</v>
       </c>
@@ -2834,15 +2950,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="108" t="s">
+    <row r="13" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="1">
         <v>2</v>
       </c>
@@ -2863,15 +2979,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="108" t="s">
+    <row r="14" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="1">
         <v>4</v>
       </c>
@@ -2892,15 +3008,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="108" t="s">
+    <row r="15" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="1">
         <v>1</v>
       </c>
@@ -2921,15 +3037,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="108" t="s">
+    <row r="16" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="1">
         <v>4</v>
       </c>
@@ -2950,15 +3066,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="108" t="s">
+    <row r="17" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="1">
         <v>1</v>
       </c>
@@ -2979,15 +3095,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="1">
         <v>5</v>
       </c>
@@ -3008,15 +3124,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="108" t="s">
+    <row r="19" spans="1:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="1">
         <v>2</v>
       </c>
@@ -3037,163 +3153,238 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="125" t="s">
+    <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="11">
-        <f>SUM(L10,L12,L14,L16,L18)-5</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A22" s="138" t="s">
+        <f>SUM(G10,G12,G14,G16,G18)-5</f>
+        <v>15</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" ref="H21:K21" si="1">SUM(H10,H12,H14,H16,H18)-5</f>
+        <v>19</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="128">
-        <f>25 - SUM(L11,L13,L15,L17,L19)</f>
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A23" s="141"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="129"/>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="144" t="s">
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="105">
+        <f>25 - SUM(G11,G13,G15,G17,G19)</f>
+        <v>18</v>
+      </c>
+      <c r="H22" s="105">
+        <f t="shared" ref="H22:K22" si="2">25 - SUM(H11,H13,H15,H17,H19)</f>
+        <v>20</v>
+      </c>
+      <c r="I22" s="105">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J22" s="105">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K22" s="105">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="140"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="146"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="145"/>
       <c r="G24" s="12">
         <f>SUM(G21:G23) * 2.5</f>
-        <v>200</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="1:12">
+        <v>82.5</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" ref="H24:K24" si="3">SUM(H21:H23) * 2.5</f>
+        <v>97.5</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="L24" s="103">
+        <f xml:space="preserve"> SUM(G24:K24)/5</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="27" spans="1:12" ht="31.5" thickTop="1" thickBot="1">
-      <c r="A27" s="137" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="56" t="s">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="H27" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="58" t="s">
+      <c r="I27" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="59" t="s">
+      <c r="J27" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="K27" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="61">
+    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="58">
         <v>3</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="58">
         <v>5</v>
       </c>
-      <c r="I28" s="61">
+      <c r="I28" s="58">
         <v>4</v>
       </c>
-      <c r="J28" s="61">
+      <c r="J28" s="58">
         <v>5</v>
       </c>
-      <c r="K28" s="61">
+      <c r="K28" s="58">
         <v>4</v>
       </c>
-      <c r="L28" s="62">
+      <c r="L28" s="59">
         <f>SUM(G28:K28)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="136" t="s">
+    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="49">
+        <v>10</v>
+      </c>
+      <c r="H29" s="49">
+        <v>10</v>
+      </c>
+      <c r="I29" s="49">
+        <v>9</v>
+      </c>
+      <c r="J29" s="49">
+        <v>9</v>
+      </c>
+      <c r="K29" s="49">
+        <v>10</v>
+      </c>
+      <c r="L29" s="50">
+        <f t="shared" ref="L29" si="4">SUM(G29:K29)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="172" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="172"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="52">
-        <v>10</v>
-      </c>
-      <c r="H29" s="52">
-        <v>10</v>
-      </c>
-      <c r="I29" s="52">
-        <v>9</v>
-      </c>
-      <c r="J29" s="52">
-        <v>9</v>
-      </c>
-      <c r="K29" s="52">
-        <v>10</v>
-      </c>
-      <c r="L29" s="53">
-        <f t="shared" ref="L29" si="1">SUM(G29:K29)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickTop="1"/>
+      <c r="G32" s="171">
+        <f>SUM(G28:K28)/5</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="174" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="104">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="26">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A29:F29"/>
@@ -3209,12 +3400,14 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3226,364 +3419,364 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5B0546-68EC-4493-8145-8E1259C27285}">
   <dimension ref="B3:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="25"/>
-    <col min="2" max="3" width="23.85546875" style="25" customWidth="1"/>
-    <col min="4" max="5" width="24" style="25" customWidth="1"/>
-    <col min="6" max="13" width="23.85546875" style="25" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="25"/>
+    <col min="1" max="1" width="8.7109375" style="22"/>
+    <col min="2" max="3" width="23.85546875" style="22" customWidth="1"/>
+    <col min="4" max="5" width="24" style="22" customWidth="1"/>
+    <col min="6" max="13" width="23.85546875" style="22" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
-      <c r="B3" s="155" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="157"/>
-    </row>
-    <row r="4" spans="2:13" ht="30.95" customHeight="1">
-      <c r="B4" s="149" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="151" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="156"/>
+    </row>
+    <row r="4" spans="2:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="149"/>
+      <c r="D4" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="151"/>
+      <c r="F4" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="164" t="s">
+      <c r="G4" s="164"/>
+      <c r="H4" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="165"/>
-      <c r="H4" s="166" t="s">
+      <c r="I4" s="166"/>
+      <c r="J4" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="167"/>
-      <c r="J4" s="168" t="s">
+      <c r="K4" s="168"/>
+      <c r="L4" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="171"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="96" t="s">
+      <c r="M4" s="170"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="96" t="s">
+      <c r="G5" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="87" t="s">
+      <c r="I5" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="97" t="s">
+      <c r="K5" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="92" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="158" t="s">
+      <c r="M5" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="90">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="157" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="158"/>
+      <c r="D6" s="87">
         <v>27</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="88">
         <v>29</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="69">
         <v>27</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="70">
         <v>29</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="89">
         <v>28</v>
       </c>
-      <c r="I6" s="93">
+      <c r="I6" s="90">
         <v>29</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J6" s="95">
         <v>18</v>
       </c>
-      <c r="K6" s="99">
+      <c r="K6" s="96">
         <v>19</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="68">
         <v>24</v>
       </c>
-      <c r="M6" s="94">
+      <c r="M6" s="91">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="158" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="65">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="158"/>
+      <c r="D7" s="62">
         <v>29</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="63">
         <v>30</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="61">
         <v>28</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="64">
         <v>30</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="65">
         <v>27</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="66">
         <v>27</v>
       </c>
-      <c r="J7" s="100">
+      <c r="J7" s="97">
         <v>17</v>
       </c>
-      <c r="K7" s="101">
+      <c r="K7" s="98">
         <v>19</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="67">
         <v>25</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="60">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="158" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="65">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="157" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="158"/>
+      <c r="D8" s="62">
         <v>30</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="63">
         <v>30</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="61">
         <v>28</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="64">
         <v>30</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="65">
         <v>29</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="66">
         <v>30</v>
       </c>
-      <c r="J8" s="100">
+      <c r="J8" s="97">
         <v>18</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8" s="98">
         <v>20</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="67">
         <v>29</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="60">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="158" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="159"/>
-      <c r="D9" s="65">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="157" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="158"/>
+      <c r="D9" s="62">
         <v>29</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="63">
         <v>30</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="61">
         <v>30</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="64">
         <v>30</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="65">
         <v>30</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="66">
         <v>30</v>
       </c>
-      <c r="J9" s="100">
+      <c r="J9" s="97">
         <v>19</v>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="98">
         <v>21</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L9" s="67">
         <v>24</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="60">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="160" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="74">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="159" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="160"/>
+      <c r="D10" s="71">
         <v>30</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="72">
         <v>30</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="73">
         <v>30</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="74">
         <v>30</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="75">
         <v>30</v>
       </c>
-      <c r="I10" s="79">
+      <c r="I10" s="76">
         <v>30</v>
       </c>
-      <c r="J10" s="102">
+      <c r="J10" s="99">
         <v>20</v>
       </c>
-      <c r="K10" s="103">
+      <c r="K10" s="100">
         <v>22</v>
       </c>
-      <c r="L10" s="80">
+      <c r="L10" s="77">
         <v>23</v>
       </c>
-      <c r="M10" s="81">
+      <c r="M10" s="78">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="57.95" customHeight="1">
-      <c r="B11" s="149" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="150"/>
-      <c r="D11" s="82">
+    <row r="11" spans="2:13" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="149"/>
+      <c r="D11" s="79">
         <f>(D6+D7+D8+D9+D10)/5</f>
         <v>29</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="80">
         <f t="shared" ref="E11:M11" si="0">(E6+E7+E8+E9+E10)/5</f>
         <v>29.8</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="81">
         <f t="shared" si="0"/>
         <v>28.6</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="82">
         <f t="shared" si="0"/>
         <v>29.8</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="79">
         <f t="shared" si="0"/>
         <v>28.8</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="80">
         <f t="shared" si="0"/>
         <v>29.2</v>
       </c>
-      <c r="J11" s="104">
+      <c r="J11" s="101">
         <f t="shared" si="0"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="K11" s="105">
+      <c r="K11" s="102">
         <f t="shared" si="0"/>
         <v>20.2</v>
       </c>
-      <c r="L11" s="88">
+      <c r="L11" s="85">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="M11" s="89">
+      <c r="M11" s="86">
         <f t="shared" si="0"/>
         <v>26.8</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="39"/>
-    </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B14" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="154"/>
-    </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B15" s="31" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C14" s="153"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B16" s="33" t="s">
+      <c r="C15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="34" t="s">
+    </row>
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B17" s="37" t="s">
+      <c r="C16" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="35" t="s">
+    </row>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B18" s="38" t="s">
+      <c r="C17" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="36" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="40"/>
+      <c r="C18" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3864,13 +4057,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26232352-A141-4CE3-90D4-573DF031538C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26232352-A141-4CE3-90D4-573DF031538C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="dc5631c0-2dca-494b-8741-23abb73733e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1f6cac8-09d7-47a3-b4db-249e70ae0ab8"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C4DC393-0B4E-4BAE-847D-7D03C72836A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C4DC393-0B4E-4BAE-847D-7D03C72836A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C36BA66-024D-46A0-B021-D57DA078C445}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C36BA66-024D-46A0-B021-D57DA078C445}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1f6cac8-09d7-47a3-b4db-249e70ae0ab8"/>
+    <ds:schemaRef ds:uri="dc5631c0-2dca-494b-8741-23abb73733e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>